--- a/organismo/Ex Consejo Nacional de la Cultura y las Artes (CNCA).xlsx
+++ b/organismo/Ex Consejo Nacional de la Cultura y las Artes (CNCA).xlsx
@@ -434,32 +434,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LUIS ARTURO</t>
+          <t>DANIELA ALEJANDRA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>SERANI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>ELLIOT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>LICENCIATURA EN ARTE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1155779,0</t>
+          <t>3741129,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -480,32 +480,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AUGUSTO ELIAS MOISES</t>
+          <t>ANA ESTHER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EVERT</t>
+          <t>TIRONI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HURTADO</t>
+          <t>BARRIOS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>LICENCIADA EN HISTORIA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>SUBDIRECTORA NACIONAL</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>914571,0</t>
+          <t>3898887,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -526,32 +526,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER</t>
+          <t>VICTOR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>VILLALOBOS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>QUINTANILLA</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
+          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1100089,0</t>
+          <t>919385,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -572,32 +572,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OSCAR ALBERTO</t>
+          <t>OSCAR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DEL SOLAR</t>
+          <t>AGERO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>WOODS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4579173,0</t>
+          <t>3385370,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -618,32 +618,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MARIANA ELISA</t>
+          <t>HUGO EDUARDO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DEISLER</t>
+          <t>ALISTER</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COLL</t>
+          <t>ULLOA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>1894580,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -664,32 +664,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>EVELYN MARICEL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>ALMONACID</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>JEFA GABINETE MINISTRO</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2538054,0</t>
+          <t>3782453,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -710,32 +710,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GONZALO HERNAN</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BASCUÑAN</t>
+          <t>ALVARADO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BASCUÑAN VARGAS</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4345635,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -756,22 +756,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>JOSE ISAAC</t>
+          <t>ANA CAROLINA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BARRAZA</t>
+          <t>ARRIAGADA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LLERENA</t>
+          <t>URZUA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -802,32 +802,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VICTOR</t>
+          <t>JOSE ISAAC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>BARRAZA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CASTRO</t>
+          <t>LLERENA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>919385,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -848,32 +848,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANA ESTHER</t>
+          <t>GONZALO HERNAN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TIRONI</t>
+          <t>BASCUÑAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BARRIOS</t>
+          <t>BASCUÑAN VARGAS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LICENCIADA EN HISTORIA</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SUBDIRECTORA NACIONAL</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3898887,0</t>
+          <t>4345635,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -894,32 +894,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DANIELA ALEJANDRA</t>
+          <t>MARIA FERNANDA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERANI</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ELLIOT</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>LICENCIATURA EN ARTE</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFA GABINETE MINISTRO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3741129,0</t>
+          <t>2538054,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -940,22 +940,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LORENNA FABIOLA</t>
+          <t>MARIANA ELISA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SALDIAS</t>
+          <t>DEISLER</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>YAÑEZ</t>
+          <t>COLL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3771142,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -986,32 +986,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MAHURO ROBERTO</t>
+          <t>OSCAR ALBERTO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>DEL SOLAR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TRONCOSO</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>INGENIERO EN GESTION DE EMPRESAS</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>DESPACHO DE DOCUMENTACIÓN</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>916618,0</t>
+          <t>4579173,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1032,32 +1032,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PABLO FERNANDO</t>
+          <t>FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>QUINTANILLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3671828,0</t>
+          <t>1100089,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VERONICA DEL CARMEN</t>
+          <t>AUGUSTO ELIAS MOISES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PUENTES</t>
+          <t>EVERT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SAENZ</t>
+          <t>HURTADO</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3647169,0</t>
+          <t>914571,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ERNESTO RENATO</t>
+          <t>LUIS ARTURO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OTTONE</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>MINISTRO PRESIDENTE</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>8980338,0</t>
+          <t>1155779,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ANA CAROLINA</t>
+          <t>CATISIS CRISTINA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARRIAGADA</t>
+          <t>LOBOS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>URZUA</t>
+          <t>ALCOTA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>3865101,0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1216,27 +1216,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>MARITZA SALOME</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>ADMINISTRADORA PUBLICA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1262,22 +1262,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EVELYN MARICEL</t>
+          <t>PEDRO FERNANDO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALMONACID</t>
+          <t>MARIMAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>QUEMENADO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3782453,0</t>
+          <t>2695510,0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1308,17 +1308,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HUGO EDUARDO</t>
+          <t>LUCIA ELVIRA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALISTER</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ULLOA</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1328,12 +1328,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1894580,0</t>
+          <t>1142240,0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1354,32 +1354,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>HUGO BERNABE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AGERO</t>
+          <t>METZDORFF</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WOODS</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>PROFESOR DE FILOSOFIA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
+          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3385370,0</t>
+          <t>2641268,0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1400,22 +1400,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MILISA IVANA</t>
+          <t>CARMEN XIMENA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OSTOJIC</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>SERRANO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>LICENCIADA EN TEATRO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1492,22 +1492,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CARMEN XIMENA</t>
+          <t>MILISA IVANA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOGUEIRA</t>
+          <t>OSTOJIC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SERRANO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>LICENCIADA EN TEATRO</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1538,32 +1538,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HUGO BERNABE</t>
+          <t>ERNESTO RENATO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>METZDORFF</t>
+          <t>OTTONE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PROFESOR DE FILOSOFIA</t>
+          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
+          <t>MINISTRO PRESIDENTE</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2641268,0</t>
+          <t>8980338,0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1584,32 +1584,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LUCIA ELVIRA</t>
+          <t>VERONICA DEL CARMEN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MENDEZ</t>
+          <t>PUENTES</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>SAENZ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1142240,0</t>
+          <t>3647169,0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1630,32 +1630,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PEDRO FERNANDO</t>
+          <t>PABLO FERNANDO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MARIMAN</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>QUEMENADO</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2695510,0</t>
+          <t>3671828,0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1676,32 +1676,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MARITZA SALOME</t>
+          <t>MAHURO ROBERTO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>TRONCOSO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ADMINISTRADORA PUBLICA</t>
+          <t>INGENIERO EN GESTION DE EMPRESAS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>DESPACHO DE DOCUMENTACIÓN</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>916618,0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1722,22 +1722,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CATISIS CRISTINA</t>
+          <t>LORENNA FABIOLA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LOBOS</t>
+          <t>SALDIAS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ALCOTA</t>
+          <t>YAÑEZ</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3865101,0</t>
+          <t>3771142,0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1768,32 +1768,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CATISIS CRISTINA</t>
+          <t>DANIELA ALEJANDRA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LOBOS</t>
+          <t>SERANI</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALCOTA</t>
+          <t>ELLIOT</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>LICENCIATURA EN ARTE</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3865101,0</t>
+          <t>3741129,0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1814,32 +1814,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MARCIA CRISTINA</t>
+          <t>VICTOR</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ORELLANA</t>
+          <t>VILLALOBOS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KROYER</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>APOYO ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3823777,0</t>
+          <t>919385,0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1860,32 +1860,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CARMEN XIMENA</t>
+          <t>VICTOR</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NOGUEIRA</t>
+          <t>VILLALOBOS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SERRANO</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>LICENCIADA EN TEATRO</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>919385,0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MILISA IVANA</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OSTOJIC</t>
+          <t>ALVARADO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>JEFE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1952,32 +1952,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CARMEN XIMENA</t>
+          <t>ANA CAROLINA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NOGUEIRA</t>
+          <t>ARRIAGADA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SERRANO</t>
+          <t>URZUA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LICENCIADA EN TEATRO</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1998,32 +1998,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HUGO BERNABE</t>
+          <t>ANA CAROLINA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>METZDORFF</t>
+          <t>ARRIAGADA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>URZUA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PROFESOR DE FILOSOFIA</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2641268,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2044,32 +2044,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HUGO BERNABE</t>
+          <t>JOSE ISAAC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>METZDORFF</t>
+          <t>BARRAZA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>LLERENA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PROFESOR DE FILOSOFIA</t>
+          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2641268,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2090,32 +2090,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LUCIA ELVIRA</t>
+          <t>JOSE ISAAC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MENDEZ</t>
+          <t>BARRAZA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>LLERENA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1142240,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PEDRO FERNANDO</t>
+          <t>GONZALO HERNAN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MARIMAN</t>
+          <t>BASCUÑAN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>QUEMENADO</t>
+          <t>BASCUÑAN VARGAS</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2695510,0</t>
+          <t>4345635,0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2182,22 +2182,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PEDRO FERNANDO</t>
+          <t>GONZALO HERNAN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MARIMAN</t>
+          <t>BASCUÑAN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>QUEMENADO</t>
+          <t>BASCUÑAN VARGAS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2695510,0</t>
+          <t>4345635,0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2228,32 +2228,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MARITZA SALOME</t>
+          <t>MARIA FERNANDA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ADMINISTRADORA PUBLICA</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>JEFA GABINETE MINISTRO</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>2538054,0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MILISA IVANA</t>
+          <t>MARIA FERNANDA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OSTOJIC</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFEA  GABINETE MINISTRO</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>2538054,0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2320,32 +2320,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ERNESTO RENATO</t>
+          <t>MARIANA ELISA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OTTONE</t>
+          <t>DEISLER</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>COLL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>MINISTRO PRESIDENTE</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8980338,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2366,32 +2366,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VERONICA DEL CARMEN</t>
+          <t>MARIANA ELISA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PUENTES</t>
+          <t>DEISLER</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SAENZ</t>
+          <t>COLL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>JEFEA  DEPARTAMENTO JURIDICO</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3647169,0</t>
+          <t>3658480,0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2412,32 +2412,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VERONICA DEL CARMEN</t>
+          <t>OSCAR ALBERTO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PUENTES</t>
+          <t>DEL SOLAR</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SAENZ</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3647169,0</t>
+          <t>4579173,0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2458,17 +2458,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PABLO FERNANDO</t>
+          <t>OSCAR ALBERTO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>DEL SOLAR</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>JEFEA DEPARTAMENTO DE EDUCACIÓN Y FORMACIÓN EN ARTES Y CULTURA</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3671828,0</t>
+          <t>4579173,0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2504,32 +2504,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PABLO FERNANDO</t>
+          <t>FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>QUINTANILLA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3671828,0</t>
+          <t>1100089,0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MAHURO ROBERTO</t>
+          <t>FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TRONCOSO</t>
+          <t>QUINTANILLA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>INGENIERO EN GESTION DE EMPRESAS</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>AUXILIAR</t>
+          <t>APOYO MANTENCION EDIFICIOS</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>916618,0</t>
+          <t>1100089,0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2596,32 +2596,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MAHURO ROBERTO</t>
+          <t>AUGUSTO ELIAS MOISES</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>EVERT</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TRONCOSO</t>
+          <t>HURTADO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>INGENIERO EN GESTION DE EMPRESAS</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>DESPACHO DE DOCUMENTACIÓN</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>916618,0</t>
+          <t>914571,0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2642,32 +2642,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LORENNA FABIOLA</t>
+          <t>LUIS ARTURO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SALDIAS</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>YAÑEZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3771142,0</t>
+          <t>1155779,0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2688,22 +2688,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LORENNA FABIOLA</t>
+          <t>CATISIS CRISTINA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SALDIAS</t>
+          <t>LOBOS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>YAÑEZ</t>
+          <t>ALCOTA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3771142,0</t>
+          <t>3865101,0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2734,32 +2734,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DANIELA ALEJANDRA</t>
+          <t>CATISIS CRISTINA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERANI</t>
+          <t>LOBOS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ELLIOT</t>
+          <t>ALCOTA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LICENCIATURA EN ARTE</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3741129,0</t>
+          <t>3865101,0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DANIELA ALEJANDRA</t>
+          <t>MARITZA SALOME</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERANI</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ELLIOT</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LICENCIATURA EN ARTE</t>
+          <t>ADMINISTRADORA PUBLICA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3741129,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2826,32 +2826,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MARCIA CRISTINA</t>
+          <t>MARITZA SALOME</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ORELLANA</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>KROYER</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
+          <t>ADMINISTRADORA PUBLICA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFEA  DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3823777,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2872,32 +2872,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ANA ESTHER</t>
+          <t>PEDRO FERNANDO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TIRONI</t>
+          <t>MARIMAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BARRIOS</t>
+          <t>QUEMENADO</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LICENCIADA EN HISTORIA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SUBDIRECTORA NACIONAL</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3898887,0</t>
+          <t>2695510,0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VICTOR</t>
+          <t>PEDRO FERNANDO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>MARIMAN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CASTRO</t>
+          <t>QUEMENADO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2938,12 +2938,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>APOYO ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>919385,0</t>
+          <t>2695510,0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VICTOR</t>
+          <t>LUCIA ELVIRA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CASTRO</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2984,12 +2984,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>919385,0</t>
+          <t>1142240,0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MARITZA SALOME</t>
+          <t>HUGO BERNABE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>METZDORFF</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ADMINISTRADORA PUBLICA</t>
+          <t>PROFESOR DE FILOSOFIA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>JEFEA  DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
+          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>2641268,0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3056,32 +3056,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CATISIS CRISTINA</t>
+          <t>HUGO BERNABE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LOBOS</t>
+          <t>METZDORFF</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ALCOTA</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>PROFESOR DE FILOSOFIA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>APOYO PROFESIONAL FONDOS CONCURSABLES</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3865101,0</t>
+          <t>2641268,0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -3102,32 +3102,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LUIS ARTURO</t>
+          <t>CARMEN XIMENA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>SERRANO</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>LICENCIADA EN TEATRO</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1155779,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -3148,32 +3148,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>AUGUSTO ELIAS MOISES</t>
+          <t>CARMEN XIMENA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>EVERT</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HURTADO</t>
+          <t>SERRANO</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>LICENCIADA EN TEATRO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>914571,0</t>
+          <t>3645132,0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3194,32 +3194,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER</t>
+          <t>MARCIA CRISTINA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>ORELLANA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>QUINTANILLA</t>
+          <t>KROYER</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>APOYO MANTENCION EDIFICIOS</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1100089,0</t>
+          <t>3823777,0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3240,32 +3240,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER</t>
+          <t>MARCIA CRISTINA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>ORELLANA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>QUINTANILLA</t>
+          <t>KROYER</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1100089,0</t>
+          <t>3823777,0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3286,32 +3286,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>OSCAR ALBERTO</t>
+          <t>MILISA IVANA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DEL SOLAR</t>
+          <t>OSTOJIC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4579173,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3332,32 +3332,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>OSCAR ALBERTO</t>
+          <t>MILISA IVANA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DEL SOLAR</t>
+          <t>OSTOJIC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4579173,0</t>
+          <t>4062825,0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3378,32 +3378,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MARIANA ELISA</t>
+          <t>ERNESTO RENATO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DEISLER</t>
+          <t>OTTONE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>COLL</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>MINISTRO PRESIDENTE</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>8980338,0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3424,32 +3424,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MARIANA ELISA</t>
+          <t>VERONICA DEL CARMEN</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DEISLER</t>
+          <t>PUENTES</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>COLL</t>
+          <t>SAENZ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>JEFEA  DEPARTAMENTO JURIDICO</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>3647169,0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>VERONICA DEL CARMEN</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>PUENTES</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>SAENZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>JEFA GABINETE MINISTRO</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2538054,0</t>
+          <t>3647169,0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3516,32 +3516,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>PABLO FERNANDO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>JEFEA  GABINETE MINISTRO</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2538054,0</t>
+          <t>3671828,0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3562,32 +3562,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GONZALO HERNAN</t>
+          <t>PABLO FERNANDO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BASCUÑAN</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BASCUÑAN VARGAS</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>JEFEA DEPARTAMENTO DE EDUCACIÓN Y FORMACIÓN EN ARTES Y CULTURA</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4345635,0</t>
+          <t>3671828,0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -3608,32 +3608,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GONZALO HERNAN</t>
+          <t>MAHURO ROBERTO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BASCUÑAN</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>BASCUÑAN VARGAS</t>
+          <t>TRONCOSO</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>INGENIERO EN GESTION DE EMPRESAS</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>AUXILIAR</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4345635,0</t>
+          <t>916618,0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3654,32 +3654,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>JOSE ISAAC</t>
+          <t>MAHURO ROBERTO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>BARRAZA</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LLERENA</t>
+          <t>TRONCOSO</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
+          <t>INGENIERO EN GESTION DE EMPRESAS</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>DESPACHO DE DOCUMENTACIÓN</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>916618,0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3700,22 +3700,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>JOSE ISAAC</t>
+          <t>LORENNA FABIOLA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>BARRAZA</t>
+          <t>SALDIAS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LLERENA</t>
+          <t>YAÑEZ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4062825,0</t>
+          <t>3771142,0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3746,32 +3746,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ANA CAROLINA</t>
+          <t>LORENNA FABIOLA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARRIAGADA</t>
+          <t>SALDIAS</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>URZUA</t>
+          <t>YAÑEZ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>3771142,0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -3792,22 +3792,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ANA CAROLINA</t>
+          <t>DANIELA ALEJANDRA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ARRIAGADA</t>
+          <t>SERANI</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>URZUA</t>
+          <t>ELLIOT</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>LICENCIATURA EN ARTE</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3658480,0</t>
+          <t>3741129,0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3838,32 +3838,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>ANA ESTHER</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>TIRONI</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>BARRIOS</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIADA EN HISTORIA</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO</t>
+          <t>SUBDIRECTORA NACIONAL</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3645132,0</t>
+          <t>3898887,0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3884,32 +3884,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EVELYN MARICEL</t>
+          <t>OSCAR</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALMONACID</t>
+          <t>AGERO</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>WOODS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>DIRECTORA REGIONAL</t>
+          <t>SECRETARIO EJECUTIVO DE DONACIONES CULTURALES</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3782453,0</t>
+          <t>3385370,0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3930,32 +3930,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EVELYN MARICEL</t>
+          <t>OSCAR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ALMONACID</t>
+          <t>AGERO</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>WOODS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3782453,0</t>
+          <t>3385370,0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>COORDINADORA UNIDAD REGIONAL DE CIUDADANIA CULTURAL</t>
+          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
+          <t>COORDINADORA UNIDAD REGIONAL DE CIUDADANIA CULTURAL</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4068,32 +4068,32 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>EVELYN MARICEL</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AGERO</t>
+          <t>ALMONACID</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>WOODS</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3385370,0</t>
+          <t>3782453,0</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4114,32 +4114,32 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>EVELYN MARICEL</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AGERO</t>
+          <t>ALMONACID</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WOODS</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO DE DONACIONES CULTURALES</t>
+          <t>DIRECTORA REGIONAL</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3385370,0</t>
+          <t>3782453,0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4206,32 +4206,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LUIS ARTURO</t>
+          <t>FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>QUINTANILLA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1085464,0</t>
+          <t>1042806,0</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -4252,22 +4252,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CONSTANCE</t>
+          <t>LAURA DEL PILAR</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>HARVEY</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>BOHN</t>
+          <t>VIDIELLA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>LICENCIADA EN ARTES</t>
+          <t>PROFESORA DE ESTADO EN MUSICA</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3744815,0</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -4298,32 +4298,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CATHERINE CLAUDIA</t>
+          <t>OSCAR ALBERTO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>DEL SOLAR</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>HORMAZABAL</t>
+          <t>NAVARRETE</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PINTORA</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>4478052,0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CATISIS CRISTINA</t>
+          <t>MARIANA ELISA</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LOBOS</t>
+          <t>DEISLER</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ALCOTA</t>
+          <t>COLL</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3752669,0</t>
+          <t>3546048,0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4390,32 +4390,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>ISABEL VALENTINA</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AGERO</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WOODS</t>
+          <t>GERALDO</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>HISTORIADOR DEL ARTE</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3250445,0</t>
+          <t>3423119,0</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4436,32 +4436,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HUGO EDUARDO</t>
+          <t>MARIA FERNANDA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ALISTER</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ULLOA</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>ACTRIZ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
+          <t>JEFA GABINETE MINISTRO</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1807642,0</t>
+          <t>2436933,0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4482,22 +4482,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>EVELYN MARICEL</t>
+          <t>GONZALO HERNAN</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ALMONACID</t>
+          <t>BASCUÑAN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>BASCUÑAN VARGAS</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>3670021,0</t>
+          <t>4233203,0</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4528,32 +4528,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>JOSE ISAAC</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>BARRAZA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>LLERENA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3532700,0</t>
+          <t>3950393,0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4620,32 +4620,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>JOSE ISAAC</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>BARRAZA</t>
+          <t>ALVARADO</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>LLERENA</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3950393,0</t>
+          <t>3532700,0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4666,22 +4666,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>GONZALO HERNAN</t>
+          <t>EVELYN MARICEL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>BASCUÑAN</t>
+          <t>ALMONACID</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>BASCUÑAN VARGAS</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PSICOLOGO</t>
+          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>4233203,0</t>
+          <t>3670021,0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4712,32 +4712,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MARIA FERNANDA</t>
+          <t>HUGO EDUARDO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>ALISTER</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>ULLOA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ACTRIZ</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>JEFA GABINETE MINISTRO</t>
+          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2436933,0</t>
+          <t>1807642,0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4758,32 +4758,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MARITZA SALOME</t>
+          <t>OSCAR</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>AGERO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>WOODS</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ADMINISTRADORA PUBLICA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3532700,0</t>
+          <t>3250445,0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4804,32 +4804,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PEDRO FERNANDO</t>
+          <t>CONSTANCE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MARIMAN</t>
+          <t>HARVEY</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>QUEMENADO</t>
+          <t>BOHN</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>LICENCIADA EN ARTES</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2596667,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4850,17 +4850,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LUCIA ELVIRA</t>
+          <t>LUIS ARTURO</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MENDEZ</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1072453,0</t>
+          <t>1085464,0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4896,32 +4896,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>AMANDA</t>
+          <t>VICTOR</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MILOSEVICH</t>
+          <t>VILLALOBOS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PEPPER</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>DISEÑADORA GRAFICA PUBLICITARIA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>869706,0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -4942,22 +4942,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LUCIA ANGELICA</t>
+          <t>ENRIQUE PATRICIO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>URRUTIA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>EDUCADORA DE PARVULO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3744815,0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4988,32 +4988,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CARMEN XIMENA</t>
+          <t>GLORIA PAULINA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NOGUEIRA</t>
+          <t>GARCIA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>SERRANO</t>
+          <t>VARELA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>LICENCIADA EN TEATRO</t>
+          <t>PSICOLOGA</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3532700,0</t>
+          <t>3505767,0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5034,32 +5034,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ALEJANDRA</t>
+          <t>ANA ESTHER</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>NOVOA</t>
+          <t>TIRONI</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>BARRIOS</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIADA EN HISTORIA</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>SUBDIRECTORA NACIONAL</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3786455,0</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5080,32 +5080,32 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MARCIA CRISTINA</t>
+          <t>MARIELA DE LAS NIEVES</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ORELLANA</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>KROYER</t>
+          <t>LEAL</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3711345,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MARGARITA MARIA</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>OSSA</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>ALDUNATE</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>LICENCIADA EN HISTORIA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>SUBSECRETARIO DE LAS CULTURAS Y LAS ARTES</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>4316895,0</t>
+          <t>8602955,0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5172,32 +5172,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MARIELA DE LAS NIEVES</t>
+          <t>DANIELA ALEJANDRA</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>SERANI</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>LEAL</t>
+          <t>ELLIOT</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>LICENCIATURA EN ARTE</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>3628697,0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5218,17 +5218,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MILISA IVANA</t>
+          <t>LORENNA FABIOLA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>OSTOJIC</t>
+          <t>SALDIAS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>YAÑEZ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>3949866,0</t>
+          <t>3670021,0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5264,32 +5264,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>JUAN CARLOS</t>
+          <t>CAMILO ANDRES</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ALDUNATE</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>REALIZADOR EN CINE Y TELEVISION</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>SUBSECRETARIO DE LAS CULTURAS Y LAS ARTES</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>8602955,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5310,32 +5310,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DANIELA ALEJANDRA</t>
+          <t>MAHURO ROBERTO</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SERANI</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ELLIOT</t>
+          <t>TRONCOSO</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>LICENCIATURA EN ARTE</t>
+          <t>INGENIERO EN GESTION DE EMPRESAS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>DESPACHO DE DOCUMENTACIÓN</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>3628697,0</t>
+          <t>867058,0</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5356,32 +5356,32 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LORENNA FABIOLA</t>
+          <t>PABLO FERNANDO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SALDIAS</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>YAÑEZ</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>3670021,0</t>
+          <t>3559396,0</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5402,32 +5402,32 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CAMILO ANDRES</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>ROBERTS</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>LIHN</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>REALIZADOR EN CINE Y TELEVISION</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>JEFA DE GABINETE</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>2987793,0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5448,32 +5448,32 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MAHURO ROBERTO</t>
+          <t>ALEJANDRA</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TRONCOSO</t>
+          <t>LECAROS</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>INGENIERO EN GESTION DE EMPRESAS</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>DESPACHO DE DOCUMENTACIÓN</t>
+          <t>MINISTRA</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>867058,0</t>
+          <t>9349853,0</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5494,32 +5494,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PABLO FERNANDO</t>
+          <t>ANDREA ALEJANDRA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>PARRA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>JAQUE</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3559396,0</t>
+          <t>3547091,0</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5540,32 +5540,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>ERNESTO RENATO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ROBERTS</t>
+          <t>OTTONE</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>LIHN</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>JEFA DE GABINETE</t>
+          <t>MINISTRO PRESIDENTE</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2987793,0</t>
+          <t>8879217,0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5586,32 +5586,32 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ALEJANDRA</t>
+          <t>MILISA IVANA</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>OSTOJIC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>LECAROS</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>MINISTRA</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>9349853,0</t>
+          <t>3949866,0</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5632,22 +5632,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ANDREA ALEJANDRA</t>
+          <t>MARGARITA MARIA</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>PARRA</t>
+          <t>OSSA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>JAQUE</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>LICENCIADA EN HISTORIA</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>3547091,0</t>
+          <t>4316895,0</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5678,32 +5678,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ERNESTO RENATO</t>
+          <t>MARCIA CRISTINA</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>OTTONE</t>
+          <t>ORELLANA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>KROYER</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>LICENCIADO EN ARTES CON MENSION EN ACTUACION TEATRAL</t>
+          <t>PROFESOR DE EDUCACION GENERAL BASICA UNIVERSIDAD DE LOS LAGOS</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>MINISTRO PRESIDENTE</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>8879217,0</t>
+          <t>3711345,0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5724,32 +5724,32 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VICTOR</t>
+          <t>ALEJANDRA</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>NOVOA</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CASTRO</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>869706,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5770,32 +5770,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ENRIQUE PATRICIO</t>
+          <t>CARMEN XIMENA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>URRUTIA</t>
+          <t>NOGUEIRA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>SERRANO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>LICENCIADA EN TEATRO</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>3744815,0</t>
+          <t>3532700,0</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5816,32 +5816,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ANA ESTHER</t>
+          <t>LUCIA ANGELICA</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>TIRONI</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BARRIOS</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>LICENCIADA EN HISTORIA</t>
+          <t>EDUCADORA DE PARVULO</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>SUBDIRECTORA NACIONAL</t>
+          <t>SEREMI</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>3786455,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5862,22 +5862,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ISABEL VALENTINA</t>
+          <t>AMANDA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>MILOSEVICH</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>GERALDO</t>
+          <t>PEPPER</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>HISTORIADOR DEL ARTE</t>
+          <t>DISEÑADORA GRAFICA PUBLICITARIA</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>3423119,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5908,32 +5908,32 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>MARIANA ELISA</t>
+          <t>LUCIA ELVIRA</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DEISLER</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>COLL</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>DIRECTORAREGIONAL</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>3546048,0</t>
+          <t>1072453,0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>OSCAR ALBERTO</t>
+          <t>PEDRO FERNANDO</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DEL SOLAR</t>
+          <t>MARIMAN</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>NAVARRETE</t>
+          <t>QUEMENADO</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>4478052,0</t>
+          <t>2596667,0</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -6000,32 +6000,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LAURA DEL PILAR</t>
+          <t>MARITZA SALOME</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>VIDIELLA</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>PROFESORA DE ESTADO EN MUSICA</t>
+          <t>ADMINISTRADORA PUBLICA</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>SEREMI</t>
+          <t>JEFAE DE DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>3744815,0</t>
+          <t>3532700,0</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -6046,32 +6046,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER</t>
+          <t>CATISIS CRISTINA</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>LOBOS</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>QUINTANILLA</t>
+          <t>ALCOTA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>PSICOLOGO</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
+          <t>DIRECTORAREGIONAL</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1042806,0</t>
+          <t>3752669,0</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6092,22 +6092,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>GLORIA PAULINA</t>
+          <t>CATHERINE CLAUDIA</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>GARCIA</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VARELA</t>
+          <t>HORMAZABAL</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>PSICOLOGA</t>
+          <t>PINTORA</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3505767,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6138,32 +6138,32 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ROBERTS</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>LIHN</t>
+          <t>ALDUNATE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>JEFA DE GABINETE DE MINISTRA</t>
+          <t>SUBSECRETARIO DE LAS CULTURAS Y LAS ARTES</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>8602955,0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6184,32 +6184,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NORMAN EMILIANO</t>
+          <t>VICTOR</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>RODRIGUEZ</t>
+          <t>VILLALOBOS</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ORTEGA</t>
+          <t>CASTRO</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>CONTADOR AUDITOR</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>JEFEA DE DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
+          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA  SEREMI METROPOLITANA</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>869706,0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6230,32 +6230,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PABLO FERNANDO</t>
+          <t>GLORIA ROSA</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>VALDES</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>VALDES</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>ARQUITECTO</t>
+          <t>PROFESORA DE MATEMATICAS</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>JEFAE DE DEPARTAMENTO DE EDUCACIÓN Y FORMACION EN ARTES Y CULTURA</t>
+          <t>SEREMI REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>3559396,0</t>
+          <t>3662167,0</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6276,32 +6276,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>MAHURO ROBERTO</t>
+          <t>ENRIQUE PATRICIO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>URRUTIA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>TRONCOSO</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>INGENIERO EN GESTION DE EMPRESAS</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>DESPACHO DE DOCUMENTACIÓN SUBSECRETARIA DE LAS CULTURAS Y LAS ARTES</t>
+          <t>SEREMI REGIÓN DE ARICA Y PARINACOTA</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>867058,0</t>
+          <t>3744815,0</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6322,32 +6322,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CAMILO ANDRES</t>
+          <t>MARIELA DE LAS NIEVES</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SALAS</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>LEAL</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>REALIZADOR EN CINE Y TELEVISION</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DEL MAULE</t>
+          <t>SEREMI REGIÓN DE LA ARAUCANÍA</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -6368,32 +6368,32 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>JUAN CARLOS</t>
+          <t>CAMILO ANDRES</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>SALAS</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ALDUNATE</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>REALIZADOR EN CINE Y TELEVISION</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>SUBSECRETARIO DE LAS CULTURAS Y LAS ARTES</t>
+          <t>SEREMI REGIÓN DEL MAULE</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>8602955,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6414,32 +6414,32 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>MARIELA DE LAS NIEVES</t>
+          <t>MAHURO ROBERTO</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>LEAL</t>
+          <t>TRONCOSO</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO EN GESTION DE EMPRESAS</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE LA ARAUCANÍA</t>
+          <t>DESPACHO DE DOCUMENTACIÓN SUBSECRETARIA DE LAS CULTURAS Y LAS ARTES</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>867058,0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6460,32 +6460,32 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ENRIQUE PATRICIO</t>
+          <t>PABLO FERNANDO</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>URRUTIA</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ARQUITECTO</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE ARICA Y PARINACOTA</t>
+          <t>JEFAE DE DEPARTAMENTO DE EDUCACIÓN Y FORMACION EN ARTES Y CULTURA</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>3744815,0</t>
+          <t>3559396,0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6506,32 +6506,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>EVELYN MARICEL</t>
+          <t>NORMAN EMILIANO</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ALMONACID</t>
+          <t>RODRIGUEZ</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>ORTEGA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
+          <t>CONTADOR AUDITOR</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE LOS LAGOS</t>
+          <t>JEFEA DE DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>3670021,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6552,32 +6552,32 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>GLORIA ROSA</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>VALDES</t>
+          <t>ROBERTS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>VALDES</t>
+          <t>LIHN</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>PROFESORA DE MATEMATICAS</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE ANTOFAGASTA</t>
+          <t>JEFA DE GABINETE DE MINISTRA</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3662167,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -6598,17 +6598,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>ALEJANDRA</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>LECAROS</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>JEFE UNIDAD DE PRENSA</t>
+          <t>MINISTRA DE LAS CULTURAS LAS ARTES Y EL PATRIMONIO</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>3532700,0</t>
+          <t>9349853,0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6644,32 +6644,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ISABEL VALENTINA</t>
+          <t>ANDREA ALEJANDRA</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>PARRA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>GERALDO</t>
+          <t>JAQUE</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>HISTORIADOR DEL ARTE</t>
+          <t>ASISTENTE SOCIAL</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE COQUIMBO</t>
+          <t>SEREMI REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>3423119,0</t>
+          <t>3547091,0</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6690,32 +6690,32 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>LAURA DEL PILAR</t>
+          <t>MARGARITA MARIA</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>OSSA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>VIDIELLA</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>PROFESORA DE ESTADO EN MUSICA</t>
+          <t>LICENCIADA EN HISTORIA</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE TARAPACÁ</t>
+          <t>SEREMI REGIÓN DE AYSÉN</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>3744815,0</t>
+          <t>4316895,0</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6736,17 +6736,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FELIPE JOSE</t>
+          <t>ALEJANDRA</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ENCINAS</t>
+          <t>NOVOA</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>JEFEA DE DEPARTAMENTO COMUNICACIONES</t>
+          <t>SEREMI REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6782,32 +6782,32 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER</t>
+          <t>LUCIA ANGELICA</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>QUINTANILLA</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>EDUCADORA DE PARVULO</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
+          <t>SEREMI REGIÓN DE OHIGGINS</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1210585,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6828,32 +6828,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>AUGUSTO ELIAS MOISES</t>
+          <t>AMANDA</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EVERT</t>
+          <t>MILOSEVICH</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>HURTADO</t>
+          <t>PEPPER</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>DISEÑADORA GRAFICA PUBLICITARIA</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CONDUCTOR SEREMI METROPOLITANA</t>
+          <t>SEREMI REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>856932,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6874,32 +6874,32 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>GLORIA PAULINA</t>
+          <t>LUCIA ELVIRA</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>GARCIA</t>
+          <t>MENDEZ</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>VARELA</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>PSICOLOGA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DEL BIOBÍO</t>
+          <t>SECRETARIA SEREMI METROPOLITANA</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>3505767,0</t>
+          <t>1072453,0</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6920,32 +6920,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ALEJANDRA</t>
+          <t>MARITZA SALOME</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>LECAROS</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>ADMINISTRADORA PUBLICO</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>MINISTRA DE LAS CULTURAS LAS ARTES Y EL PATRIMONIO</t>
+          <t>JEFA DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>9349853,0</t>
+          <t>3532700,0</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6966,32 +6966,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VICTOR</t>
+          <t>KATHERINE</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>VILLALOBOS</t>
+          <t>IBACACHE</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>CASTRO</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PROFESORA DE ENSEÑANZA MEDIA EN HISTORIA Y CS. SOCIALES</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ASISTENTE ADMINISTRATIVO Y TRANSPARENCIA ACTIVA  SEREMI METROPOLITANA</t>
+          <t>SEREMI REGIÓN DE MAGALLANES</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>869706,0</t>
+          <t>4027625,0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -7012,32 +7012,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LUIS ARTURO</t>
+          <t>CATHERINE CLAUDIA</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>GONZALEZ</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>HORMAZABAL</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>PINTORA</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>CONDUCTOR SUBSECRETARIA DE LAS CULTURAS Y LAS ARTES</t>
+          <t>SEREMI REGIÓN DE LOS RÍOS</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1085464,0</t>
+          <t>3464443,0</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7104,32 +7104,32 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CATHERINE CLAUDIA</t>
+          <t>LUIS ARTURO</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>HORMAZABAL</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>PINTORA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE LOS RÍOS</t>
+          <t>CONDUCTOR SUBSECRETARIA DE LAS CULTURAS Y LAS ARTES</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>1085464,0</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7150,32 +7150,32 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>KATHERINE</t>
+          <t>GLORIA PAULINA</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>IBACACHE</t>
+          <t>GARCIA</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>VARELA</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>PROFESORA DE ENSEÑANZA MEDIA EN HISTORIA Y CS. SOCIALES</t>
+          <t>PSICOLOGA</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE MAGALLANES</t>
+          <t>SEREMI REGIÓN DEL BIOBÍO</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>4027625,0</t>
+          <t>3505767,0</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7196,32 +7196,32 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MARITZA SALOME</t>
+          <t>AUGUSTO ELIAS MOISES</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>EVERT</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>HURTADO</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ADMINISTRADORA PUBLICO</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ADMINISTRACION Y FINANZAS</t>
+          <t>CONDUCTOR SEREMI METROPOLITANA</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>3532700,0</t>
+          <t>856932,0</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -7242,32 +7242,32 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LUCIA ELVIRA</t>
+          <t>FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MENDEZ</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>QUINTANILLA</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>SECRETARIA SEREMI METROPOLITANA</t>
+          <t>APOYO OPERATIVO EN LA MANTENCION DE DEPENDENCIAS EN LA SECCIÓN DE LOGISTICA Y MANTENCIÓN</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1072453,0</t>
+          <t>1210585,0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7288,32 +7288,32 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>AMANDA</t>
+          <t>FELIPE JOSE</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MILOSEVICH</t>
+          <t>ENCINAS</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>PEPPER</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>DISEÑADORA GRAFICA PUBLICITARIA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE LOS LAGOS</t>
+          <t>JEFEA DE DEPARTAMENTO COMUNICACIONES</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>3464443,0</t>
+          <t>3340470,0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7334,32 +7334,32 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LUCIA ANGELICA</t>
+          <t>LAURA DEL PILAR</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>VIDIELLA</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>EDUCADORA DE PARVULO</t>
+          <t>PROFESORA DE ESTADO EN MUSICA</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE OHIGGINS</t>
+          <t>SEREMI REGIÓN DE TARAPACÁ</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3744815,0</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7380,32 +7380,32 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ALEJANDRA</t>
+          <t>ISABEL VALENTINA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>NOVOA</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>SANDOVAL</t>
+          <t>GERALDO</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>HISTORIADOR DEL ARTE</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN METROPOLITANA</t>
+          <t>SEREMI REGIÓN DE COQUIMBO</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>3340470,0</t>
+          <t>3423119,0</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7426,32 +7426,32 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MARGARITA MARIA</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>OSSA</t>
+          <t>ALVARADO</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>GONZALEZ</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>LICENCIADA EN HISTORIA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE AYSÉN</t>
+          <t>JEFE UNIDAD DE PRENSA</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>4316895,0</t>
+          <t>3532700,0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7472,32 +7472,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ANDREA ALEJANDRA</t>
+          <t>EVELYN MARICEL</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PARRA</t>
+          <t>ALMONACID</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>JAQUE</t>
+          <t>SANDOVAL</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>ASISTENTE SOCIAL</t>
+          <t>PROFESOR DE HISTORIA Y GEOGRAFIA</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>SEREMI REGIÓN DE ATACAMA</t>
+          <t>SEREMI REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>3547091,0</t>
+          <t>3670021,0</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7518,32 +7518,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>HUGO EDUARDO</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>AGERO</t>
+          <t>ALISTER</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>WOODS</t>
+          <t>ULLOA</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ABOGADOA</t>
+          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
+          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>3250445,0</t>
+          <t>1807642,0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7564,32 +7564,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HUGO EDUARDO</t>
+          <t>OSCAR</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ALISTER</t>
+          <t>AGERO</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ULLOA</t>
+          <t>WOODS</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>LICENCIA DE ENSEÑANZA MEDIA</t>
+          <t>ABOGADOA</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ENCARGADO CIUDADANÍA Y CULTURA Y PROGRAMA ACCESO</t>
+          <t>SECRETARIO EJECUTIVO DEL COMITÉ CALIFICADOR DE DONACIONES CULTURALES</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1807642,0</t>
+          <t>3250445,0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
